--- a/docs/PTA4_WDDC_100_10_20/PTA4_WDDC_100_10_20_08.11.2024_output.xlsx
+++ b/docs/PTA4_WDDC_100_10_20/PTA4_WDDC_100_10_20_08.11.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pupse</t>
+          <t>APTK</t>
         </is>
       </c>
       <c r="C2" t="b">
@@ -503,13 +503,21 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>VT</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>10.836</v>
+      </c>
+      <c r="H2" t="n">
+        <v>10.854</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.01799999999999891</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -517,7 +525,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>LKOH</t>
+          <t>CHMF</t>
         </is>
       </c>
       <c r="C3" t="b">
@@ -528,7 +536,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -537,16 +545,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>7123</v>
+        <v>1187.6</v>
       </c>
       <c r="H3" t="n">
-        <v>7112.5</v>
+        <v>1188.6</v>
       </c>
       <c r="I3" t="n">
-        <v>-10.5</v>
+        <v>-1</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.15</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="4">
@@ -561,7 +569,9 @@
       <c r="C4" t="b">
         <v>1</v>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>long</t>
@@ -573,16 +583,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>7081.5</v>
+        <v>7123</v>
       </c>
       <c r="H4" t="n">
-        <v>7075.5</v>
+        <v>7112.5</v>
       </c>
       <c r="I4" t="n">
-        <v>-6</v>
+        <v>-10.5</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.08</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="5">
@@ -591,7 +601,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ROSN</t>
+          <t>MAGN</t>
         </is>
       </c>
       <c r="C5" t="b">
@@ -611,16 +621,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>472.65</v>
+        <v>37.69</v>
       </c>
       <c r="H5" t="n">
-        <v>474.2</v>
+        <v>37.88</v>
       </c>
       <c r="I5" t="n">
-        <v>1.550000000000011</v>
+        <v>0.1900000000000048</v>
       </c>
       <c r="J5" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6">
@@ -629,7 +639,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ROSN</t>
+          <t>MAGN</t>
         </is>
       </c>
       <c r="C6" t="b">
@@ -649,16 +659,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>475.05</v>
+        <v>38.005</v>
       </c>
       <c r="H6" t="n">
-        <v>473.9</v>
+        <v>37.87</v>
       </c>
       <c r="I6" t="n">
-        <v>1.150000000000034</v>
+        <v>0.1350000000000051</v>
       </c>
       <c r="J6" t="n">
-        <v>0.24</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="7">
@@ -667,7 +677,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ROSN</t>
+          <t>MAGN</t>
         </is>
       </c>
       <c r="C7" t="b">
@@ -687,16 +697,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>475.4</v>
+        <v>38.1</v>
       </c>
       <c r="H7" t="n">
-        <v>474.65</v>
+        <v>37.985</v>
       </c>
       <c r="I7" t="n">
-        <v>0.75</v>
+        <v>0.115000000000002</v>
       </c>
       <c r="J7" t="n">
-        <v>0.16</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="8">
@@ -705,7 +715,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NVTK</t>
+          <t>MTLR</t>
         </is>
       </c>
       <c r="C8" t="b">
@@ -725,16 +735,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>930.6</v>
+        <v>103.28</v>
       </c>
       <c r="H8" t="n">
-        <v>930.8</v>
+        <v>102.88</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1999999999999318</v>
+        <v>-0.4000000000000057</v>
       </c>
       <c r="J8" t="n">
-        <v>0.02</v>
+        <v>-0.39</v>
       </c>
     </row>
     <row r="9">
@@ -743,7 +753,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NVTK</t>
+          <t>MTLR</t>
         </is>
       </c>
       <c r="C9" t="b">
@@ -763,16 +773,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>932.8</v>
+        <v>103.36</v>
       </c>
       <c r="H9" t="n">
-        <v>931.6</v>
+        <v>103</v>
       </c>
       <c r="I9" t="n">
-        <v>1.199999999999932</v>
+        <v>0.3599999999999994</v>
       </c>
       <c r="J9" t="n">
-        <v>0.13</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="10">
@@ -781,13 +791,15 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NVTK</t>
+          <t>MXI</t>
         </is>
       </c>
       <c r="C10" t="b">
         <v>1</v>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>long</t>
@@ -799,16 +811,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>931.4</v>
+        <v>2746.55</v>
       </c>
       <c r="H10" t="n">
-        <v>930.8</v>
+        <v>2748</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.6000000000000227</v>
+        <v>1.449999999999818</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="11">
@@ -817,7 +829,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NLMK</t>
+          <t>MXI</t>
         </is>
       </c>
       <c r="C11" t="b">
@@ -828,7 +840,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -837,16 +849,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>129.02</v>
+        <v>2754.55</v>
       </c>
       <c r="H11" t="n">
-        <v>129.78</v>
+        <v>2745.95</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7599999999999909</v>
+        <v>8.600000000000364</v>
       </c>
       <c r="J11" t="n">
-        <v>0.59</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="12">
@@ -866,7 +878,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -875,16 +887,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>130.06</v>
+        <v>129.02</v>
       </c>
       <c r="H12" t="n">
-        <v>129.74</v>
+        <v>129.78</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3199999999999932</v>
+        <v>0.7599999999999909</v>
       </c>
       <c r="J12" t="n">
-        <v>0.25</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="13">
@@ -913,16 +925,16 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>130.46</v>
+        <v>130.06</v>
       </c>
       <c r="H13" t="n">
-        <v>130.06</v>
+        <v>129.74</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4000000000000057</v>
+        <v>0.3199999999999932</v>
       </c>
       <c r="J13" t="n">
-        <v>0.31</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="14">
@@ -931,7 +943,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MAGN</t>
+          <t>NLMK</t>
         </is>
       </c>
       <c r="C14" t="b">
@@ -942,7 +954,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -951,16 +963,16 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>37.69</v>
+        <v>130.46</v>
       </c>
       <c r="H14" t="n">
-        <v>37.88</v>
+        <v>130.06</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1900000000000048</v>
+        <v>0.4000000000000057</v>
       </c>
       <c r="J14" t="n">
-        <v>0.5</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="15">
@@ -969,7 +981,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MAGN</t>
+          <t>NVTK</t>
         </is>
       </c>
       <c r="C15" t="b">
@@ -980,7 +992,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -989,16 +1001,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>38.005</v>
+        <v>930.6</v>
       </c>
       <c r="H15" t="n">
-        <v>37.87</v>
+        <v>930.8</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1350000000000051</v>
+        <v>0.1999999999999318</v>
       </c>
       <c r="J15" t="n">
-        <v>0.36</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="16">
@@ -1007,7 +1019,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MAGN</t>
+          <t>NVTK</t>
         </is>
       </c>
       <c r="C16" t="b">
@@ -1027,16 +1039,16 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>38.1</v>
+        <v>932.8</v>
       </c>
       <c r="H16" t="n">
-        <v>37.985</v>
+        <v>931.6</v>
       </c>
       <c r="I16" t="n">
-        <v>0.115000000000002</v>
+        <v>1.199999999999932</v>
       </c>
       <c r="J16" t="n">
-        <v>0.3</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="17">
@@ -1045,7 +1057,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CHMF</t>
+          <t>PIKK</t>
         </is>
       </c>
       <c r="C17" t="b">
@@ -1065,16 +1077,16 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1187.6</v>
+        <v>484.2</v>
       </c>
       <c r="H17" t="n">
-        <v>1188.6</v>
+        <v>484.2</v>
       </c>
       <c r="I17" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1083,7 +1095,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>VTBR</t>
+          <t>ROSN</t>
         </is>
       </c>
       <c r="C18" t="b">
@@ -1103,16 +1115,16 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>78.59</v>
+        <v>472.65</v>
       </c>
       <c r="H18" t="n">
-        <v>78.52</v>
+        <v>474.2</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.07000000000000739</v>
+        <v>1.550000000000011</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.09</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="19">
@@ -1121,7 +1133,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>VTBR</t>
+          <t>ROSN</t>
         </is>
       </c>
       <c r="C19" t="b">
@@ -1141,16 +1153,16 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>78.63</v>
+        <v>475.05</v>
       </c>
       <c r="H19" t="n">
-        <v>78.34999999999999</v>
+        <v>473.9</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2800000000000011</v>
+        <v>1.150000000000034</v>
       </c>
       <c r="J19" t="n">
-        <v>0.36</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="20">
@@ -1159,7 +1171,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>VTBR</t>
+          <t>ROSN</t>
         </is>
       </c>
       <c r="C20" t="b">
@@ -1179,16 +1191,16 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>78.68000000000001</v>
+        <v>475.4</v>
       </c>
       <c r="H20" t="n">
-        <v>78.53</v>
+        <v>474.65</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1500000000000057</v>
+        <v>0.75</v>
       </c>
       <c r="J20" t="n">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="21">
@@ -1197,7 +1209,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MTLR</t>
+          <t>TATN</t>
         </is>
       </c>
       <c r="C21" t="b">
@@ -1217,16 +1229,16 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>103.28</v>
+        <v>573</v>
       </c>
       <c r="H21" t="n">
-        <v>102.88</v>
+        <v>575.8</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.4000000000000057</v>
+        <v>2.799999999999955</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.39</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="22">
@@ -1235,7 +1247,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MTLR</t>
+          <t>TATN</t>
         </is>
       </c>
       <c r="C22" t="b">
@@ -1255,16 +1267,16 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>103.36</v>
+        <v>577.8</v>
       </c>
       <c r="H22" t="n">
-        <v>103</v>
+        <v>581.1</v>
       </c>
       <c r="I22" t="n">
-        <v>0.3599999999999994</v>
+        <v>-3.300000000000068</v>
       </c>
       <c r="J22" t="n">
-        <v>0.35</v>
+        <v>-0.5700000000000001</v>
       </c>
     </row>
     <row r="23">
@@ -1273,7 +1285,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MXI</t>
+          <t>VTBR</t>
         </is>
       </c>
       <c r="C23" t="b">
@@ -1293,16 +1305,16 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2746.55</v>
+        <v>78.59</v>
       </c>
       <c r="H23" t="n">
-        <v>2748</v>
+        <v>78.52</v>
       </c>
       <c r="I23" t="n">
-        <v>1.449999999999818</v>
+        <v>-0.07000000000000739</v>
       </c>
       <c r="J23" t="n">
-        <v>0.05</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="24">
@@ -1311,7 +1323,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MXI</t>
+          <t>VTBR</t>
         </is>
       </c>
       <c r="C24" t="b">
@@ -1331,16 +1343,16 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2754.55</v>
+        <v>78.63</v>
       </c>
       <c r="H24" t="n">
-        <v>2745.95</v>
+        <v>78.34999999999999</v>
       </c>
       <c r="I24" t="n">
-        <v>8.600000000000364</v>
+        <v>0.2800000000000011</v>
       </c>
       <c r="J24" t="n">
-        <v>0.31</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="25">
@@ -1349,16 +1361,18 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MXI</t>
+          <t>VTBR</t>
         </is>
       </c>
       <c r="C25" t="b">
         <v>1</v>
       </c>
-      <c r="D25" t="inlineStr"/>
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1367,16 +1381,16 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2740.7</v>
+        <v>78.68000000000001</v>
       </c>
       <c r="H25" t="n">
-        <v>2744.45</v>
+        <v>78.53</v>
       </c>
       <c r="I25" t="n">
-        <v>3.75</v>
+        <v>0.1500000000000057</v>
       </c>
       <c r="J25" t="n">
-        <v>0.14</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="26">
@@ -1385,15 +1399,13 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>APTK</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="C26" t="b">
         <v>1</v>
       </c>
-      <c r="D26" t="b">
-        <v>1</v>
-      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
           <t>long</t>
@@ -1405,16 +1417,16 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>10.836</v>
+        <v>7081.5</v>
       </c>
       <c r="H26" t="n">
-        <v>10.854</v>
+        <v>7075.5</v>
       </c>
       <c r="I26" t="n">
-        <v>0.01799999999999891</v>
+        <v>-6</v>
       </c>
       <c r="J26" t="n">
-        <v>0.17</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="27">
@@ -1423,18 +1435,16 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>PIKK</t>
+          <t>MXI</t>
         </is>
       </c>
       <c r="C27" t="b">
         <v>1</v>
       </c>
-      <c r="D27" t="b">
-        <v>1</v>
-      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1443,16 +1453,16 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>484.2</v>
+        <v>2740.7</v>
       </c>
       <c r="H27" t="n">
-        <v>484.2</v>
+        <v>2744.45</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="28">
@@ -1461,7 +1471,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>PIKK</t>
+          <t>NVTK</t>
         </is>
       </c>
       <c r="C28" t="b">
@@ -1479,16 +1489,16 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>483.3</v>
+        <v>931.4</v>
       </c>
       <c r="H28" t="n">
-        <v>484.2</v>
+        <v>930.8</v>
       </c>
       <c r="I28" t="n">
-        <v>0.8999999999999773</v>
+        <v>-0.6000000000000227</v>
       </c>
       <c r="J28" t="n">
-        <v>0.19</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="29">
@@ -1497,15 +1507,13 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TATN</t>
+          <t>PIKK</t>
         </is>
       </c>
       <c r="C29" t="b">
         <v>1</v>
       </c>
-      <c r="D29" t="b">
-        <v>1</v>
-      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
           <t>long</t>
@@ -1517,16 +1525,16 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>573</v>
+        <v>483.3</v>
       </c>
       <c r="H29" t="n">
-        <v>575.8</v>
+        <v>484.2</v>
       </c>
       <c r="I29" t="n">
-        <v>2.799999999999955</v>
+        <v>0.8999999999999773</v>
       </c>
       <c r="J29" t="n">
-        <v>0.49</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="30">
@@ -1541,12 +1549,10 @@
       <c r="C30" t="b">
         <v>1</v>
       </c>
-      <c r="D30" t="b">
-        <v>1</v>
-      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1555,51 +1561,15 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>577.8</v>
+        <v>578.5</v>
       </c>
       <c r="H30" t="n">
-        <v>581.1</v>
+        <v>575.7</v>
       </c>
       <c r="I30" t="n">
-        <v>-3.300000000000068</v>
+        <v>-2.799999999999955</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.5700000000000001</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>TATN</t>
-        </is>
-      </c>
-      <c r="C31" t="b">
-        <v>1</v>
-      </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="G31" t="n">
-        <v>578.5</v>
-      </c>
-      <c r="H31" t="n">
-        <v>575.7</v>
-      </c>
-      <c r="I31" t="n">
-        <v>-2.799999999999955</v>
-      </c>
-      <c r="J31" t="n">
         <v>-0.48</v>
       </c>
     </row>
@@ -1614,7 +1584,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1918,24 +1888,6 @@
         <v>-0.08</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>pupse</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
